--- a/artfynd/A 944-2023.xlsx
+++ b/artfynd/A 944-2023.xlsx
@@ -2728,7 +2728,7 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111302596</v>
+        <v>111302599</v>
       </c>
       <c r="B19" t="n">
         <v>77515</v>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549197.9917110866</v>
+        <v>549129.2298347112</v>
       </c>
       <c r="R19" t="n">
-        <v>6751927.956361717</v>
+        <v>6751965.453695725</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2840,10 +2840,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111302630</v>
+        <v>111302609</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>73681</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2852,25 +2852,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>6439</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2880,10 +2880,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>549168.7695699815</v>
+        <v>548859.8440092149</v>
       </c>
       <c r="R20" t="n">
-        <v>6751996.660456324</v>
+        <v>6752165.654747568</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2936,6 +2936,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>glasbjörk</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Betula pubescens</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Betula pubescens</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2952,10 +2967,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111302606</v>
+        <v>111302625</v>
       </c>
       <c r="B21" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2968,34 +2983,39 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>548924.108373123</v>
+        <v>549001.2935212504</v>
       </c>
       <c r="R21" t="n">
-        <v>6752064.827197027</v>
+        <v>6752229.404262385</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3079,7 +3099,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111302634</v>
+        <v>111302600</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -3119,10 +3139,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549294.2190303125</v>
+        <v>549045.7884312533</v>
       </c>
       <c r="R22" t="n">
-        <v>6752054.363501322</v>
+        <v>6752007.129530822</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3303,10 +3323,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111302600</v>
+        <v>111302627</v>
       </c>
       <c r="B24" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3315,25 +3335,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3343,10 +3363,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549045.7884312533</v>
+        <v>549025.0491872019</v>
       </c>
       <c r="R24" t="n">
-        <v>6752007.129530822</v>
+        <v>6752061.83694973</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3415,10 +3435,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111302595</v>
+        <v>111302618</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>78536</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3427,25 +3447,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3455,10 +3475,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549258.3821849199</v>
+        <v>548797.459104473</v>
       </c>
       <c r="R25" t="n">
-        <v>6751896.670917027</v>
+        <v>6752271.859246003</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3511,6 +3531,21 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3527,10 +3562,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111302632</v>
+        <v>111302611</v>
       </c>
       <c r="B26" t="n">
-        <v>77515</v>
+        <v>76495</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3543,21 +3578,21 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6425</v>
+        <v>6487</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
@@ -3567,10 +3602,10 @@
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549246.0659841158</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R26" t="n">
-        <v>6752046.883239264</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3623,6 +3658,21 @@
       </c>
       <c r="AG26" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT26" t="inlineStr"/>
       <c r="AW26" t="inlineStr">
@@ -3639,10 +3689,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111302614</v>
+        <v>111302606</v>
       </c>
       <c r="B27" t="n">
-        <v>77268</v>
+        <v>78107</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3655,21 +3705,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>228912</v>
+        <v>6453</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3679,10 +3729,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>548787.3120419538</v>
+        <v>548924.108373123</v>
       </c>
       <c r="R27" t="n">
-        <v>6752229.869374634</v>
+        <v>6752064.827197027</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3766,10 +3816,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111302612</v>
+        <v>111302628</v>
       </c>
       <c r="B28" t="n">
-        <v>77267</v>
+        <v>96348</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3778,25 +3828,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>6446</v>
+        <v>220787</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3806,10 +3856,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>548785.3627515456</v>
+        <v>549032.3057191569</v>
       </c>
       <c r="R28" t="n">
-        <v>6752229.842639101</v>
+        <v>6752065.830263838</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3862,21 +3912,6 @@
       </c>
       <c r="AG28" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ28" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO28" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT28" t="inlineStr"/>
       <c r="AW28" t="inlineStr">
@@ -3893,10 +3928,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111302599</v>
+        <v>111302617</v>
       </c>
       <c r="B29" t="n">
-        <v>77515</v>
+        <v>78611</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3905,20 +3940,20 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6425</v>
+        <v>6463</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
@@ -3933,10 +3968,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>549129.2298347112</v>
+        <v>548798.447088034</v>
       </c>
       <c r="R29" t="n">
-        <v>6751965.453695725</v>
+        <v>6752270.899534045</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3989,6 +4024,21 @@
       </c>
       <c r="AG29" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ29" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO29" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT29" t="inlineStr"/>
       <c r="AW29" t="inlineStr">
@@ -4005,10 +4055,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111302607</v>
+        <v>111302614</v>
       </c>
       <c r="B30" t="n">
-        <v>77186</v>
+        <v>77268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4021,21 +4071,21 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>353</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4045,10 +4095,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>548923.1202988143</v>
+        <v>548787.3120419538</v>
       </c>
       <c r="R30" t="n">
-        <v>6752065.786931136</v>
+        <v>6752229.869374634</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4132,10 +4182,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111302610</v>
+        <v>111302632</v>
       </c>
       <c r="B31" t="n">
-        <v>76918</v>
+        <v>77515</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4148,21 +4198,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4172,10 +4222,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>548787.2986951937</v>
+        <v>549246.0659841158</v>
       </c>
       <c r="R31" t="n">
-        <v>6752230.842468767</v>
+        <v>6752046.883239264</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4228,21 +4278,6 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ31" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO31" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4259,10 +4294,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111302602</v>
+        <v>111302607</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4275,21 +4310,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4299,10 +4334,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>548995.8170246667</v>
+        <v>548923.1202988143</v>
       </c>
       <c r="R32" t="n">
-        <v>6752025.420990173</v>
+        <v>6752065.786931136</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4355,6 +4390,21 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4371,10 +4421,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111302617</v>
+        <v>111302602</v>
       </c>
       <c r="B33" t="n">
-        <v>78611</v>
+        <v>77515</v>
       </c>
       <c r="C33" t="inlineStr">
         <is>
@@ -4383,20 +4433,20 @@
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>6463</v>
+        <v>6425</v>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H33" t="inlineStr">
@@ -4411,10 +4461,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>548798.447088034</v>
+        <v>548995.8170246667</v>
       </c>
       <c r="R33" t="n">
-        <v>6752270.899534045</v>
+        <v>6752025.420990173</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4467,21 +4517,6 @@
       </c>
       <c r="AG33" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ33" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO33" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT33" t="inlineStr"/>
       <c r="AW33" t="inlineStr">
@@ -4498,10 +4533,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111302628</v>
+        <v>111302598</v>
       </c>
       <c r="B34" t="n">
-        <v>96348</v>
+        <v>73696</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4510,25 +4545,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>220787</v>
+        <v>6440</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4538,10 +4573,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>549032.3057191569</v>
+        <v>549198.0051698429</v>
       </c>
       <c r="R34" t="n">
-        <v>6752065.830263838</v>
+        <v>6751926.983184514</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4594,6 +4629,21 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4610,10 +4660,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111302598</v>
+        <v>111302612</v>
       </c>
       <c r="B35" t="n">
-        <v>73696</v>
+        <v>77267</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4626,21 +4676,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6440</v>
+        <v>6446</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4650,10 +4700,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549198.0051698429</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R35" t="n">
-        <v>6751926.983184514</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4709,17 +4759,17 @@
       </c>
       <c r="AJ35" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO35" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT35" t="inlineStr"/>
@@ -4737,10 +4787,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111302609</v>
+        <v>111302595</v>
       </c>
       <c r="B36" t="n">
-        <v>73681</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4749,25 +4799,25 @@
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4777,10 +4827,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>548859.8440092149</v>
+        <v>549258.3821849199</v>
       </c>
       <c r="R36" t="n">
-        <v>6752165.654747568</v>
+        <v>6751896.670917027</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4833,21 +4883,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>glasbjörk</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4864,10 +4899,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111302622</v>
+        <v>111302630</v>
       </c>
       <c r="B37" t="n">
-        <v>79444</v>
+        <v>77515</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4880,21 +4915,21 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1049</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4904,10 +4939,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>548825.3628342154</v>
+        <v>549168.7695699815</v>
       </c>
       <c r="R37" t="n">
-        <v>6752298.520250917</v>
+        <v>6751996.660456324</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4960,21 +4995,6 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4991,10 +5011,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111302611</v>
+        <v>111302596</v>
       </c>
       <c r="B38" t="n">
-        <v>76495</v>
+        <v>77515</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5007,21 +5027,21 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6487</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5031,10 +5051,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>548785.3627515456</v>
+        <v>549197.9917110866</v>
       </c>
       <c r="R38" t="n">
-        <v>6752229.842639101</v>
+        <v>6751927.956361717</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5087,21 +5107,6 @@
       </c>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5118,10 +5123,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111302627</v>
+        <v>111302634</v>
       </c>
       <c r="B39" t="n">
-        <v>77604</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5130,25 +5135,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6450</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5158,10 +5163,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549025.0491872019</v>
+        <v>549294.2190303125</v>
       </c>
       <c r="R39" t="n">
-        <v>6752061.83694973</v>
+        <v>6752054.363501322</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5230,10 +5235,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111302625</v>
+        <v>111302622</v>
       </c>
       <c r="B40" t="n">
-        <v>77267</v>
+        <v>79444</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5246,39 +5251,34 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6446</v>
+        <v>1049</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
-      <c r="K40" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
       <c r="P40" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>549001.2935212504</v>
+        <v>548825.3628342154</v>
       </c>
       <c r="R40" t="n">
-        <v>6752229.404262385</v>
+        <v>6752298.520250917</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5362,10 +5362,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111302618</v>
+        <v>111302610</v>
       </c>
       <c r="B41" t="n">
-        <v>78536</v>
+        <v>76918</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5374,25 +5374,25 @@
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E41" t="n">
-        <v>229497</v>
+        <v>6437</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5402,10 +5402,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>548797.459104473</v>
+        <v>548787.2986951937</v>
       </c>
       <c r="R41" t="n">
-        <v>6752271.859246003</v>
+        <v>6752230.842468767</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5461,17 +5461,17 @@
       </c>
       <c r="AJ41" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK41" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO41" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT41" t="inlineStr"/>

--- a/artfynd/A 944-2023.xlsx
+++ b/artfynd/A 944-2023.xlsx
@@ -2728,10 +2728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111302599</v>
+        <v>111302614</v>
       </c>
       <c r="B19" t="n">
-        <v>77515</v>
+        <v>77268</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2744,21 +2744,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>228912</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>549129.2298347112</v>
+        <v>548787.3120419538</v>
       </c>
       <c r="R19" t="n">
-        <v>6751965.453695725</v>
+        <v>6752229.869374634</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2824,6 +2824,21 @@
       </c>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2840,10 +2855,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111302609</v>
+        <v>111302602</v>
       </c>
       <c r="B20" t="n">
-        <v>73681</v>
+        <v>77515</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2852,25 +2867,25 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2880,10 +2895,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>548859.8440092149</v>
+        <v>548995.8170246667</v>
       </c>
       <c r="R20" t="n">
-        <v>6752165.654747568</v>
+        <v>6752025.420990173</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2936,21 +2951,6 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>glasbjörk</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2967,10 +2967,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111302625</v>
+        <v>111302608</v>
       </c>
       <c r="B21" t="n">
-        <v>77267</v>
+        <v>89419</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2983,39 +2983,34 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6446</v>
+        <v>1204</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
       <c r="P21" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>549001.2935212504</v>
+        <v>548856.9467520209</v>
       </c>
       <c r="R21" t="n">
-        <v>6752229.404262385</v>
+        <v>6752163.668361006</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3068,21 +3063,6 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3099,7 +3079,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111302600</v>
+        <v>111302632</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -3139,10 +3119,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549045.7884312533</v>
+        <v>549246.0659841158</v>
       </c>
       <c r="R22" t="n">
-        <v>6752007.129530822</v>
+        <v>6752046.883239264</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3211,10 +3191,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111302608</v>
+        <v>111302634</v>
       </c>
       <c r="B23" t="n">
-        <v>89419</v>
+        <v>77515</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3227,21 +3207,21 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>1204</v>
+        <v>6425</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3251,10 +3231,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>548856.9467520209</v>
+        <v>549294.2190303125</v>
       </c>
       <c r="R23" t="n">
-        <v>6752163.668361006</v>
+        <v>6752054.363501322</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3323,10 +3303,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111302627</v>
+        <v>111302609</v>
       </c>
       <c r="B24" t="n">
-        <v>77604</v>
+        <v>73681</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3339,21 +3319,21 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6450</v>
+        <v>6439</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3363,10 +3343,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>549025.0491872019</v>
+        <v>548859.8440092149</v>
       </c>
       <c r="R24" t="n">
-        <v>6752061.83694973</v>
+        <v>6752165.654747568</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3419,6 +3399,21 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>glasbjörk</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Betula pubescens</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Betula pubescens</t>
+        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3435,10 +3430,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111302618</v>
+        <v>111302595</v>
       </c>
       <c r="B25" t="n">
-        <v>78536</v>
+        <v>77515</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3447,25 +3442,25 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3475,10 +3470,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>548797.459104473</v>
+        <v>549258.3821849199</v>
       </c>
       <c r="R25" t="n">
-        <v>6752271.859246003</v>
+        <v>6751896.670917027</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3531,21 +3526,6 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ25" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK25" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO25" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3562,10 +3542,10 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111302611</v>
+        <v>111302625</v>
       </c>
       <c r="B26" t="n">
-        <v>76495</v>
+        <v>77267</v>
       </c>
       <c r="C26" t="inlineStr">
         <is>
@@ -3578,34 +3558,39 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>6487</v>
+        <v>6446</v>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>548785.3627515456</v>
+        <v>549001.2935212504</v>
       </c>
       <c r="R26" t="n">
-        <v>6752229.842639101</v>
+        <v>6752229.404262385</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3689,10 +3674,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111302606</v>
+        <v>111302612</v>
       </c>
       <c r="B27" t="n">
-        <v>78107</v>
+        <v>77267</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3705,21 +3690,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6453</v>
+        <v>6446</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3729,10 +3714,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>548924.108373123</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R27" t="n">
-        <v>6752064.827197027</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3816,10 +3801,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111302628</v>
+        <v>111302599</v>
       </c>
       <c r="B28" t="n">
-        <v>96348</v>
+        <v>77515</v>
       </c>
       <c r="C28" t="inlineStr">
         <is>
@@ -3828,25 +3813,25 @@
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>220787</v>
+        <v>6425</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
@@ -3856,10 +3841,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>549032.3057191569</v>
+        <v>549129.2298347112</v>
       </c>
       <c r="R28" t="n">
-        <v>6752065.830263838</v>
+        <v>6751965.453695725</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3928,10 +3913,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111302617</v>
+        <v>111302607</v>
       </c>
       <c r="B29" t="n">
-        <v>78611</v>
+        <v>77186</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3940,25 +3925,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>6463</v>
+        <v>353</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3968,10 +3953,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>548798.447088034</v>
+        <v>548923.1202988143</v>
       </c>
       <c r="R29" t="n">
-        <v>6752270.899534045</v>
+        <v>6752065.786931136</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4027,17 +4012,17 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4055,10 +4040,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111302614</v>
+        <v>111302617</v>
       </c>
       <c r="B30" t="n">
-        <v>77268</v>
+        <v>78611</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4067,25 +4052,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>228912</v>
+        <v>6463</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4095,10 +4080,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>548787.3120419538</v>
+        <v>548798.447088034</v>
       </c>
       <c r="R30" t="n">
-        <v>6752229.869374634</v>
+        <v>6752270.899534045</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4154,17 +4139,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>sälg</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Salix caprea</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4182,10 +4167,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111302632</v>
+        <v>111302622</v>
       </c>
       <c r="B31" t="n">
-        <v>77515</v>
+        <v>79444</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4198,21 +4183,21 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
@@ -4222,10 +4207,10 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>549246.0659841158</v>
+        <v>548825.3628342154</v>
       </c>
       <c r="R31" t="n">
-        <v>6752046.883239264</v>
+        <v>6752298.520250917</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4278,6 +4263,21 @@
       </c>
       <c r="AG31" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT31" t="inlineStr"/>
       <c r="AW31" t="inlineStr">
@@ -4294,10 +4294,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111302607</v>
+        <v>111302630</v>
       </c>
       <c r="B32" t="n">
-        <v>77186</v>
+        <v>77515</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4310,21 +4310,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>353</v>
+        <v>6425</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4334,10 +4334,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>548923.1202988143</v>
+        <v>549168.7695699815</v>
       </c>
       <c r="R32" t="n">
-        <v>6752065.786931136</v>
+        <v>6751996.660456324</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4390,21 +4390,6 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ32" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO32" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4421,7 +4406,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111302602</v>
+        <v>111302596</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4461,10 +4446,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>548995.8170246667</v>
+        <v>549197.9917110866</v>
       </c>
       <c r="R33" t="n">
-        <v>6752025.420990173</v>
+        <v>6751927.956361717</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4533,10 +4518,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111302598</v>
+        <v>111302611</v>
       </c>
       <c r="B34" t="n">
-        <v>73696</v>
+        <v>76495</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4549,21 +4534,21 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6440</v>
+        <v>6487</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4573,10 +4558,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>549198.0051698429</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R34" t="n">
-        <v>6751926.983184514</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4632,17 +4617,17 @@
       </c>
       <c r="AJ34" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO34" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT34" t="inlineStr"/>
@@ -4660,10 +4645,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111302612</v>
+        <v>111302600</v>
       </c>
       <c r="B35" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4676,21 +4661,21 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4700,10 +4685,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>548785.3627515456</v>
+        <v>549045.7884312533</v>
       </c>
       <c r="R35" t="n">
-        <v>6752229.842639101</v>
+        <v>6752007.129530822</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4756,21 +4741,6 @@
       </c>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4787,10 +4757,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111302595</v>
+        <v>111302598</v>
       </c>
       <c r="B36" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4803,21 +4773,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4827,10 +4797,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549258.3821849199</v>
+        <v>549198.0051698429</v>
       </c>
       <c r="R36" t="n">
-        <v>6751896.670917027</v>
+        <v>6751926.983184514</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4883,6 +4853,21 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4899,10 +4884,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111302630</v>
+        <v>111302628</v>
       </c>
       <c r="B37" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4911,25 +4896,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4939,10 +4924,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549168.7695699815</v>
+        <v>549032.3057191569</v>
       </c>
       <c r="R37" t="n">
-        <v>6751996.660456324</v>
+        <v>6752065.830263838</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -5011,10 +4996,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111302596</v>
+        <v>111302627</v>
       </c>
       <c r="B38" t="n">
-        <v>77515</v>
+        <v>77604</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5023,25 +5008,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>6450</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5051,10 +5036,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549197.9917110866</v>
+        <v>549025.0491872019</v>
       </c>
       <c r="R38" t="n">
-        <v>6751927.956361717</v>
+        <v>6752061.83694973</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5123,10 +5108,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111302634</v>
+        <v>111302618</v>
       </c>
       <c r="B39" t="n">
-        <v>77515</v>
+        <v>78536</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5135,25 +5120,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5163,10 +5148,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>549294.2190303125</v>
+        <v>548797.459104473</v>
       </c>
       <c r="R39" t="n">
-        <v>6752054.363501322</v>
+        <v>6752271.859246003</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5219,6 +5204,21 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5235,10 +5235,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111302622</v>
+        <v>111302606</v>
       </c>
       <c r="B40" t="n">
-        <v>79444</v>
+        <v>78107</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5251,21 +5251,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>1049</v>
+        <v>6453</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5275,10 +5275,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>548825.3628342154</v>
+        <v>548924.108373123</v>
       </c>
       <c r="R40" t="n">
-        <v>6752298.520250917</v>
+        <v>6752064.827197027</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>

--- a/artfynd/A 944-2023.xlsx
+++ b/artfynd/A 944-2023.xlsx
@@ -2728,10 +2728,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>111302614</v>
+        <v>111302610</v>
       </c>
       <c r="B19" t="n">
-        <v>77268</v>
+        <v>76918</v>
       </c>
       <c r="C19" t="inlineStr">
         <is>
@@ -2744,21 +2744,21 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>228912</v>
+        <v>6437</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Mörk kolflarnlav</t>
+          <t>Blanksvart spiklav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Carbonicola myrmecina</t>
+          <t>Calicium denigratum</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Bendiksby &amp; Timdal</t>
+          <t>(Vain.) Tibell</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
@@ -2768,10 +2768,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>548787.3120419538</v>
+        <v>548787.2986951937</v>
       </c>
       <c r="R19" t="n">
-        <v>6752229.869374634</v>
+        <v>6752230.842468767</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2855,10 +2855,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>111302602</v>
+        <v>111302622</v>
       </c>
       <c r="B20" t="n">
-        <v>77515</v>
+        <v>79444</v>
       </c>
       <c r="C20" t="inlineStr">
         <is>
@@ -2871,21 +2871,21 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>1049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Kortskaftad ärgspik</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Microcalicium ahlneri</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>Tibell</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
@@ -2895,10 +2895,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>548995.8170246667</v>
+        <v>548825.3628342154</v>
       </c>
       <c r="R20" t="n">
-        <v>6752025.420990173</v>
+        <v>6752298.520250917</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2951,6 +2951,21 @@
       </c>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2967,10 +2982,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>111302608</v>
+        <v>111302606</v>
       </c>
       <c r="B21" t="n">
-        <v>89419</v>
+        <v>78107</v>
       </c>
       <c r="C21" t="inlineStr">
         <is>
@@ -2983,21 +2998,21 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>1204</v>
+        <v>6453</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gränsticka</t>
+          <t>Vedskivlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Phellopilus nigrolimitatus</t>
+          <t>Hertelidea botryosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
+          <t>(Fr.) Printzen &amp; Kantvilas</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
@@ -3007,10 +3022,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>548856.9467520209</v>
+        <v>548924.108373123</v>
       </c>
       <c r="R21" t="n">
-        <v>6752163.668361006</v>
+        <v>6752064.827197027</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -3063,6 +3078,21 @@
       </c>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -3079,7 +3109,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>111302632</v>
+        <v>111302634</v>
       </c>
       <c r="B22" t="n">
         <v>77515</v>
@@ -3119,10 +3149,10 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>549246.0659841158</v>
+        <v>549294.2190303125</v>
       </c>
       <c r="R22" t="n">
-        <v>6752046.883239264</v>
+        <v>6752054.363501322</v>
       </c>
       <c r="S22" t="n">
         <v>10</v>
@@ -3191,10 +3221,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>111302634</v>
+        <v>111302618</v>
       </c>
       <c r="B23" t="n">
-        <v>77515</v>
+        <v>78536</v>
       </c>
       <c r="C23" t="inlineStr">
         <is>
@@ -3203,25 +3233,25 @@
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6425</v>
+        <v>229497</v>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Korallblylav</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Parmeliella triptophylla</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Müll.Arg.</t>
         </is>
       </c>
       <c r="I23" t="inlineStr"/>
@@ -3231,10 +3261,10 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>549294.2190303125</v>
+        <v>548797.459104473</v>
       </c>
       <c r="R23" t="n">
-        <v>6752054.363501322</v>
+        <v>6752271.859246003</v>
       </c>
       <c r="S23" t="n">
         <v>10</v>
@@ -3287,6 +3317,21 @@
       </c>
       <c r="AG23" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT23" t="inlineStr"/>
       <c r="AW23" t="inlineStr">
@@ -3303,10 +3348,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111302609</v>
+        <v>111302632</v>
       </c>
       <c r="B24" t="n">
-        <v>73681</v>
+        <v>77515</v>
       </c>
       <c r="C24" t="inlineStr">
         <is>
@@ -3315,25 +3360,25 @@
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>6439</v>
+        <v>6425</v>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Gulnål</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Chaenotheca brachypoda</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>(Ach.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I24" t="inlineStr"/>
@@ -3343,10 +3388,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>548859.8440092149</v>
+        <v>549246.0659841158</v>
       </c>
       <c r="R24" t="n">
-        <v>6752165.654747568</v>
+        <v>6752046.883239264</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3399,21 +3444,6 @@
       </c>
       <c r="AG24" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ24" t="inlineStr">
-        <is>
-          <t>glasbjörk</t>
-        </is>
-      </c>
-      <c r="AK24" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
-      </c>
-      <c r="AO24" t="inlineStr">
-        <is>
-          <t>Betula pubescens</t>
-        </is>
       </c>
       <c r="AT24" t="inlineStr"/>
       <c r="AW24" t="inlineStr">
@@ -3430,10 +3460,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111302595</v>
+        <v>111302607</v>
       </c>
       <c r="B25" t="n">
-        <v>77515</v>
+        <v>77186</v>
       </c>
       <c r="C25" t="inlineStr">
         <is>
@@ -3446,21 +3476,21 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6425</v>
+        <v>353</v>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Dvärgbägarlav</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Cladonia parasitica</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Hoffm.) Hoffm.</t>
         </is>
       </c>
       <c r="I25" t="inlineStr"/>
@@ -3470,10 +3500,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>549258.3821849199</v>
+        <v>548923.1202988143</v>
       </c>
       <c r="R25" t="n">
-        <v>6751896.670917027</v>
+        <v>6752065.786931136</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3526,6 +3556,21 @@
       </c>
       <c r="AG25" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT25" t="inlineStr"/>
       <c r="AW25" t="inlineStr">
@@ -3542,7 +3587,7 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>111302625</v>
+        <v>111302612</v>
       </c>
       <c r="B26" t="n">
         <v>77267</v>
@@ -3576,21 +3621,16 @@
         </is>
       </c>
       <c r="I26" t="inlineStr"/>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>med apothecier</t>
-        </is>
-      </c>
       <c r="P26" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q26" t="n">
-        <v>549001.2935212504</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R26" t="n">
-        <v>6752229.404262385</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S26" t="n">
         <v>10</v>
@@ -3674,10 +3714,10 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>111302612</v>
+        <v>111302595</v>
       </c>
       <c r="B27" t="n">
-        <v>77267</v>
+        <v>77515</v>
       </c>
       <c r="C27" t="inlineStr">
         <is>
@@ -3690,21 +3730,21 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>6446</v>
+        <v>6425</v>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>Kolflarnlav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Carbonicola anthracophila</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>(Nyl.) Bendiksby &amp; Timdal</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I27" t="inlineStr"/>
@@ -3714,10 +3754,10 @@
         </is>
       </c>
       <c r="Q27" t="n">
-        <v>548785.3627515456</v>
+        <v>549258.3821849199</v>
       </c>
       <c r="R27" t="n">
-        <v>6752229.842639101</v>
+        <v>6751896.670917027</v>
       </c>
       <c r="S27" t="n">
         <v>10</v>
@@ -3770,21 +3810,6 @@
       </c>
       <c r="AG27" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ27" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO27" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT27" t="inlineStr"/>
       <c r="AW27" t="inlineStr">
@@ -3801,7 +3826,7 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>111302599</v>
+        <v>111302602</v>
       </c>
       <c r="B28" t="n">
         <v>77515</v>
@@ -3841,10 +3866,10 @@
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>549129.2298347112</v>
+        <v>548995.8170246667</v>
       </c>
       <c r="R28" t="n">
-        <v>6751965.453695725</v>
+        <v>6752025.420990173</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3913,10 +3938,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>111302607</v>
+        <v>111302609</v>
       </c>
       <c r="B29" t="n">
-        <v>77186</v>
+        <v>73681</v>
       </c>
       <c r="C29" t="inlineStr">
         <is>
@@ -3925,25 +3950,25 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>353</v>
+        <v>6439</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Dvärgbägarlav</t>
+          <t>Gulnål</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Cladonia parasitica</t>
+          <t>Chaenotheca brachypoda</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Hoffm.) Hoffm.</t>
+          <t>(Ach.) Tibell</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
@@ -3953,10 +3978,10 @@
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>548923.1202988143</v>
+        <v>548859.8440092149</v>
       </c>
       <c r="R29" t="n">
-        <v>6752065.786931136</v>
+        <v>6752165.654747568</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -4012,17 +4037,17 @@
       </c>
       <c r="AJ29" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>glasbjörk</t>
         </is>
       </c>
       <c r="AK29" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AO29" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Betula pubescens</t>
         </is>
       </c>
       <c r="AT29" t="inlineStr"/>
@@ -4040,10 +4065,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>111302617</v>
+        <v>111302614</v>
       </c>
       <c r="B30" t="n">
-        <v>78611</v>
+        <v>77268</v>
       </c>
       <c r="C30" t="inlineStr">
         <is>
@@ -4052,25 +4077,25 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>6463</v>
+        <v>228912</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Bårdlav</t>
+          <t>Mörk kolflarnlav</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Nephroma parile</t>
+          <t>Carbonicola myrmecina</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Ach.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I30" t="inlineStr"/>
@@ -4080,10 +4105,10 @@
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>548798.447088034</v>
+        <v>548787.3120419538</v>
       </c>
       <c r="R30" t="n">
-        <v>6752270.899534045</v>
+        <v>6752229.869374634</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -4139,17 +4164,17 @@
       </c>
       <c r="AJ30" t="inlineStr">
         <is>
-          <t>sälg</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK30" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO30" t="inlineStr">
         <is>
-          <t>Salix caprea</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT30" t="inlineStr"/>
@@ -4167,10 +4192,10 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>111302622</v>
+        <v>111302625</v>
       </c>
       <c r="B31" t="n">
-        <v>79444</v>
+        <v>77267</v>
       </c>
       <c r="C31" t="inlineStr">
         <is>
@@ -4183,34 +4208,39 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1049</v>
+        <v>6446</v>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Kortskaftad ärgspik</t>
+          <t>Kolflarnlav</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Microcalicium ahlneri</t>
+          <t>Carbonicola anthracophila</t>
         </is>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>Tibell</t>
+          <t>(Nyl.) Bendiksby &amp; Timdal</t>
         </is>
       </c>
       <c r="I31" t="inlineStr"/>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>med apothecier</t>
+        </is>
+      </c>
       <c r="P31" t="inlineStr">
         <is>
           <t>Källåsberget, Spjärsbodarna, Dlr</t>
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>548825.3628342154</v>
+        <v>549001.2935212504</v>
       </c>
       <c r="R31" t="n">
-        <v>6752298.520250917</v>
+        <v>6752229.404262385</v>
       </c>
       <c r="S31" t="n">
         <v>10</v>
@@ -4294,10 +4324,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>111302630</v>
+        <v>111302598</v>
       </c>
       <c r="B32" t="n">
-        <v>77515</v>
+        <v>73696</v>
       </c>
       <c r="C32" t="inlineStr">
         <is>
@@ -4310,21 +4340,21 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>6425</v>
+        <v>6440</v>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Vitgrynig nållav</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Chaenotheca subroscida</t>
         </is>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Eitner) Zahlbr.</t>
         </is>
       </c>
       <c r="I32" t="inlineStr"/>
@@ -4334,10 +4364,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>549168.7695699815</v>
+        <v>549198.0051698429</v>
       </c>
       <c r="R32" t="n">
-        <v>6751996.660456324</v>
+        <v>6751926.983184514</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4390,6 +4420,21 @@
       </c>
       <c r="AG32" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT32" t="inlineStr"/>
       <c r="AW32" t="inlineStr">
@@ -4406,7 +4451,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>111302596</v>
+        <v>111302600</v>
       </c>
       <c r="B33" t="n">
         <v>77515</v>
@@ -4446,10 +4491,10 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>549197.9917110866</v>
+        <v>549045.7884312533</v>
       </c>
       <c r="R33" t="n">
-        <v>6751927.956361717</v>
+        <v>6752007.129530822</v>
       </c>
       <c r="S33" t="n">
         <v>10</v>
@@ -4518,10 +4563,10 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>111302611</v>
+        <v>111302627</v>
       </c>
       <c r="B34" t="n">
-        <v>76495</v>
+        <v>77604</v>
       </c>
       <c r="C34" t="inlineStr">
         <is>
@@ -4530,25 +4575,25 @@
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>6487</v>
+        <v>6450</v>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Blågrå svartspik</t>
+          <t>Skuggblåslav</t>
         </is>
       </c>
       <c r="G34" t="inlineStr">
         <is>
-          <t>Chaenothecopsis fennica</t>
+          <t>Hypogymnia vittata</t>
         </is>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>(Laurila) Tibell</t>
+          <t>(Ach.) Parrique</t>
         </is>
       </c>
       <c r="I34" t="inlineStr"/>
@@ -4558,10 +4603,10 @@
         </is>
       </c>
       <c r="Q34" t="n">
-        <v>548785.3627515456</v>
+        <v>549025.0491872019</v>
       </c>
       <c r="R34" t="n">
-        <v>6752229.842639101</v>
+        <v>6752061.83694973</v>
       </c>
       <c r="S34" t="n">
         <v>10</v>
@@ -4614,21 +4659,6 @@
       </c>
       <c r="AG34" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ34" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO34" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT34" t="inlineStr"/>
       <c r="AW34" t="inlineStr">
@@ -4645,10 +4675,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>111302600</v>
+        <v>111302628</v>
       </c>
       <c r="B35" t="n">
-        <v>77515</v>
+        <v>96348</v>
       </c>
       <c r="C35" t="inlineStr">
         <is>
@@ -4657,25 +4687,25 @@
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>NT</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>220787</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
@@ -4685,10 +4715,10 @@
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>549045.7884312533</v>
+        <v>549032.3057191569</v>
       </c>
       <c r="R35" t="n">
-        <v>6752007.129530822</v>
+        <v>6752065.830263838</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4757,10 +4787,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>111302598</v>
+        <v>111302596</v>
       </c>
       <c r="B36" t="n">
-        <v>73696</v>
+        <v>77515</v>
       </c>
       <c r="C36" t="inlineStr">
         <is>
@@ -4773,21 +4803,21 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>6440</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Vitgrynig nållav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Chaenotheca subroscida</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(Eitner) Zahlbr.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
@@ -4797,10 +4827,10 @@
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>549198.0051698429</v>
+        <v>549197.9917110866</v>
       </c>
       <c r="R36" t="n">
-        <v>6751926.983184514</v>
+        <v>6751927.956361717</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4853,21 +4883,6 @@
       </c>
       <c r="AG36" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ36" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO36" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4884,10 +4899,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>111302628</v>
+        <v>111302617</v>
       </c>
       <c r="B37" t="n">
-        <v>96348</v>
+        <v>78611</v>
       </c>
       <c r="C37" t="inlineStr">
         <is>
@@ -4896,25 +4911,25 @@
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>220787</v>
+        <v>6463</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Bårdlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma parile</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
@@ -4924,10 +4939,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>549032.3057191569</v>
+        <v>548798.447088034</v>
       </c>
       <c r="R37" t="n">
-        <v>6752065.830263838</v>
+        <v>6752270.899534045</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4980,6 +4995,21 @@
       </c>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>sälg</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Salix caprea</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4996,10 +5026,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>111302627</v>
+        <v>111302608</v>
       </c>
       <c r="B38" t="n">
-        <v>77604</v>
+        <v>89419</v>
       </c>
       <c r="C38" t="inlineStr">
         <is>
@@ -5008,25 +5038,25 @@
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6450</v>
+        <v>1204</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Skuggblåslav</t>
+          <t>Gränsticka</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Hypogymnia vittata</t>
+          <t>Phellopilus nigrolimitatus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Parrique</t>
+          <t>(Romell) Niemelä, T.Wagner &amp; M.Fisch.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
@@ -5036,10 +5066,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>549025.0491872019</v>
+        <v>548856.9467520209</v>
       </c>
       <c r="R38" t="n">
-        <v>6752061.83694973</v>
+        <v>6752163.668361006</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -5108,10 +5138,10 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>111302618</v>
+        <v>111302630</v>
       </c>
       <c r="B39" t="n">
-        <v>78536</v>
+        <v>77515</v>
       </c>
       <c r="C39" t="inlineStr">
         <is>
@@ -5120,25 +5150,25 @@
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>NT</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>229497</v>
+        <v>6425</v>
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Korallblylav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G39" t="inlineStr">
         <is>
-          <t>Parmeliella triptophylla</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>(Ach.) Müll.Arg.</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I39" t="inlineStr"/>
@@ -5148,10 +5178,10 @@
         </is>
       </c>
       <c r="Q39" t="n">
-        <v>548797.459104473</v>
+        <v>549168.7695699815</v>
       </c>
       <c r="R39" t="n">
-        <v>6752271.859246003</v>
+        <v>6751996.660456324</v>
       </c>
       <c r="S39" t="n">
         <v>10</v>
@@ -5204,21 +5234,6 @@
       </c>
       <c r="AG39" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ39" t="inlineStr">
-        <is>
-          <t>sälg</t>
-        </is>
-      </c>
-      <c r="AK39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
-      </c>
-      <c r="AO39" t="inlineStr">
-        <is>
-          <t>Salix caprea</t>
-        </is>
       </c>
       <c r="AT39" t="inlineStr"/>
       <c r="AW39" t="inlineStr">
@@ -5235,10 +5250,10 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>111302606</v>
+        <v>111302611</v>
       </c>
       <c r="B40" t="n">
-        <v>78107</v>
+        <v>76495</v>
       </c>
       <c r="C40" t="inlineStr">
         <is>
@@ -5251,21 +5266,21 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>6453</v>
+        <v>6487</v>
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Vedskivlav</t>
+          <t>Blågrå svartspik</t>
         </is>
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Hertelidea botryosa</t>
+          <t>Chaenothecopsis fennica</t>
         </is>
       </c>
       <c r="H40" t="inlineStr">
         <is>
-          <t>(Fr.) Printzen &amp; Kantvilas</t>
+          <t>(Laurila) Tibell</t>
         </is>
       </c>
       <c r="I40" t="inlineStr"/>
@@ -5275,10 +5290,10 @@
         </is>
       </c>
       <c r="Q40" t="n">
-        <v>548924.108373123</v>
+        <v>548785.3627515456</v>
       </c>
       <c r="R40" t="n">
-        <v>6752064.827197027</v>
+        <v>6752229.842639101</v>
       </c>
       <c r="S40" t="n">
         <v>10</v>
@@ -5362,10 +5377,10 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>111302610</v>
+        <v>111302599</v>
       </c>
       <c r="B41" t="n">
-        <v>76918</v>
+        <v>77515</v>
       </c>
       <c r="C41" t="inlineStr">
         <is>
@@ -5378,21 +5393,21 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>6437</v>
+        <v>6425</v>
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Blanksvart spiklav</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G41" t="inlineStr">
         <is>
-          <t>Calicium denigratum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>(Vain.) Tibell</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I41" t="inlineStr"/>
@@ -5402,10 +5417,10 @@
         </is>
       </c>
       <c r="Q41" t="n">
-        <v>548787.2986951937</v>
+        <v>549129.2298347112</v>
       </c>
       <c r="R41" t="n">
-        <v>6752230.842468767</v>
+        <v>6751965.453695725</v>
       </c>
       <c r="S41" t="n">
         <v>10</v>
@@ -5458,21 +5473,6 @@
       </c>
       <c r="AG41" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ41" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO41" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT41" t="inlineStr"/>
       <c r="AW41" t="inlineStr">
